--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1377.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1377.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.258898521051103</v>
+        <v>1.220779895782471</v>
       </c>
       <c r="B1">
-        <v>2.546253151775185</v>
+        <v>2.47726583480835</v>
       </c>
       <c r="C1">
-        <v>3.419723445343234</v>
+        <v>7.358223915100098</v>
       </c>
       <c r="D1">
-        <v>3.189112433500599</v>
+        <v>2.23894476890564</v>
       </c>
       <c r="E1">
-        <v>1.100357712430012</v>
+        <v>1.159412145614624</v>
       </c>
     </row>
   </sheetData>
